--- a/EndPoint/wwwroot/doc/Personel.xlsx
+++ b/EndPoint/wwwroot/doc/Personel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Samimi\CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samimi.golnar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4330B4A-4226-43BF-947E-68E14E7C8881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F0E7C-E9A4-435A-92C5-18884A9954DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="منابع انسانی" sheetId="1" r:id="rId1"/>
+    <sheet name="فرآیندهای اجرایی" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>ردیف</t>
   </si>
@@ -142,12 +143,176 @@
   <si>
     <t>تمام وقت</t>
   </si>
+  <si>
+    <t>فرآیندهای اجرایی سازمان</t>
+  </si>
+  <si>
+    <r>
+      <t>حوزه فعالیت (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>تولیدی</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>بازرگانی</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>خدماتی</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>حوزه بازرگانی</t>
+  </si>
+  <si>
+    <t>میزان واردات انجام شده طی سه سال اخیر (میلیون ریال):</t>
+  </si>
+  <si>
+    <t>میزان صادرات انجام شده طی سه سال اخیر (میلیون ریال):</t>
+  </si>
+  <si>
+    <t>اطلاعات مهمترین محصولات وارداتی سال 1399</t>
+  </si>
+  <si>
+    <t>نام محصول</t>
+  </si>
+  <si>
+    <t>کد تعرفه وارداتی</t>
+  </si>
+  <si>
+    <t>میزان واردات شرکت</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>اطلاعات محصولات وارداتی</t>
+  </si>
+  <si>
+    <t>تعداد گروه وارداتی</t>
+  </si>
+  <si>
+    <t>تعداد اقلام وارداتی</t>
+  </si>
+  <si>
+    <t>حوزه خدماتی</t>
+  </si>
+  <si>
+    <t>اطلاعات خدمات قابل ارائه</t>
+  </si>
+  <si>
+    <t>نام خدمت</t>
+  </si>
+  <si>
+    <t>گروه خدمت</t>
+  </si>
+  <si>
+    <t>تعداد خدمات ارائه شده</t>
+  </si>
+  <si>
+    <t>حجم ریالی خدمت</t>
+  </si>
+  <si>
+    <t>حوزه تولیدی</t>
+  </si>
+  <si>
+    <t>ظرفیت اسمی تولید (مقدار):</t>
+  </si>
+  <si>
+    <t>ظرفیت عملیاتی تولید:</t>
+  </si>
+  <si>
+    <t>دانش فنی و تکنولوژی</t>
+  </si>
+  <si>
+    <t>شرح دانش و تکنولوژی:</t>
+  </si>
+  <si>
+    <t>کدام خط تولید:</t>
+  </si>
+  <si>
+    <t>اطلاعات محصولات تولیدی</t>
+  </si>
+  <si>
+    <t>گروه کالا</t>
+  </si>
+  <si>
+    <t>میزان تولید</t>
+  </si>
+  <si>
+    <t>کل تولید کشور</t>
+  </si>
+  <si>
+    <t>میزان ریالی تولید</t>
+  </si>
+  <si>
+    <t>ابداعات و اختراعات</t>
+  </si>
+  <si>
+    <t>عنوان اختراع:</t>
+  </si>
+  <si>
+    <t>موضوع اختراع:</t>
+  </si>
+  <si>
+    <t>سال ثبت اختراع:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +355,35 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +408,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -305,11 +521,430 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +985,298 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J1004"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
@@ -12744,4 +13671,507 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6856094-3481-43DF-AAF0-38BC058D0157}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="20.28515625" style="112" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="112" customWidth="1"/>
+    <col min="4" max="4" width="22" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="112" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="112" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26">
+        <v>1399</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1400</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="46">
+        <v>1</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="51">
+        <v>2</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="56">
+        <v>3</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="61">
+        <v>4</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="69">
+        <v>1</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="73"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="80"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="46">
+        <v>1</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="81"/>
+    </row>
+    <row r="20" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="51">
+        <v>2</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="82"/>
+    </row>
+    <row r="21" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="56">
+        <v>3</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="83"/>
+    </row>
+    <row r="22" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="61">
+        <v>4</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="84"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.45" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+    </row>
+    <row r="24" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+    </row>
+    <row r="26" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+    </row>
+    <row r="27" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="97"/>
+    </row>
+    <row r="28" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="101"/>
+    </row>
+    <row r="29" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="105"/>
+    </row>
+    <row r="30" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
+    </row>
+    <row r="31" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="46">
+        <v>1</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="51">
+        <v>2</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="55"/>
+    </row>
+    <row r="34" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="56">
+        <v>3</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="61">
+        <v>4</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="97"/>
+    </row>
+    <row r="38" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="101"/>
+    </row>
+    <row r="39" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>